--- a/ResultatsBancTest/Flex.xlsx
+++ b/ResultatsBancTest/Flex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Windows\Bureau\EnvoieLM\ResultatsBancTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louis-maxencehotton/Desktop/ProjetCapteurGraphite2022-LM-TL/ResultatsBancTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED47999E-9CC3-422C-9540-1F489BC81AB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6864ACA8-7309-5742-A6EC-87212E11BDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{786922CB-4535-4135-98E9-A5AD90371A33}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{786922CB-4535-4135-98E9-A5AD90371A33}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>série1</t>
   </si>
@@ -49,6 +59,9 @@
   </si>
   <si>
     <t>angle</t>
+  </si>
+  <si>
+    <t>relative</t>
   </si>
 </sst>
 </file>
@@ -118,6 +131,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2160" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Flex sensor</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -131,7 +169,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2160" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -151,16 +189,14 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -196,8 +232,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.15464129483814523"/>
-                  <c:y val="0.12458260425780111"/>
+                  <c:x val="-2.7314523184601924E-2"/>
+                  <c:y val="-0.29862605715952173"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -213,7 +249,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -232,6 +268,93 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
+              <c:f>Feuil1!$I$2:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.610000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.070000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.990000000000009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59.220000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63.45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>71.910000000000011</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>76.140000000000015</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>80.37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>84.600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>88.830000000000013</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>93.06</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>97.29</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>101.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>105.75000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Feuil1!$H$2:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -240,174 +363,87 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2300000000000004</c:v>
+                  <c:v>-0.11507722368688776</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.4600000000000009</c:v>
+                  <c:v>-0.13226211912998145</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.690000000000001</c:v>
+                  <c:v>-0.14944717390267159</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.920000000000002</c:v>
+                  <c:v>-0.17536675572387833</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.150000000000002</c:v>
+                  <c:v>-0.20152568408358632</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.380000000000003</c:v>
+                  <c:v>-0.22428137851969324</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.610000000000003</c:v>
+                  <c:v>-0.23658784044186859</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.840000000000003</c:v>
+                  <c:v>-0.25068809931333857</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.070000000000007</c:v>
+                  <c:v>-0.26305080393747138</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.300000000000004</c:v>
+                  <c:v>-0.27723051354713252</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46.53</c:v>
+                  <c:v>-0.29141911831855499</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50.760000000000005</c:v>
+                  <c:v>-0.30386048869985816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>54.990000000000009</c:v>
+                  <c:v>-0.31284631762642057</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>59.220000000000006</c:v>
+                  <c:v>-0.32536928672476789</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>63.45</c:v>
+                  <c:v>-0.33613521591255602</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>67.680000000000007</c:v>
+                  <c:v>-0.34513176690997488</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>71.910000000000011</c:v>
+                  <c:v>-0.35594251660657528</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>76.140000000000015</c:v>
+                  <c:v>-0.36495608975642363</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>80.37</c:v>
+                  <c:v>-0.37219913205738187</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>84.600000000000009</c:v>
+                  <c:v>-0.38125608027142394</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>88.830000000000013</c:v>
+                  <c:v>-0.39579433572265255</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>93.06</c:v>
+                  <c:v>-0.40489224527901696</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>97.29</c:v>
+                  <c:v>-0.41218800575977421</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>101.52000000000001</c:v>
+                  <c:v>-0.41951084792879095</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>105.75000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Feuil1!$G$2:$G$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>458767.24799999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>411421.95199999993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>405177.59999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>399119.90600000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>390318.38</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>381820.59200000006</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>374723.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>370994.46799999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>366811.87599999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>363221.53200000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>359189.076</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>355242.72599999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>351853.01800000004</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>349444.7460000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>346142.96000000008</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>343353.90800000005</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>341057.47800000006</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>338338.272</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>336104.03399999993</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>334329.93599999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>332137.72200000007</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>328678.25599999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>326549.77599999995</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>324862.728</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>323186.85599999997</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>322773.36200000002</c:v>
+                  <c:v>-0.42132933510169879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FB66-4E3D-A895-3E7D7B9624A2}"/>
+              <c16:uniqueId val="{00000000-52AB-4B4D-9D93-79BEB4EF6DB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -419,11 +455,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="654305168"/>
-        <c:axId val="655369760"/>
+        <c:axId val="395720095"/>
+        <c:axId val="395722527"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="654305168"/>
+        <c:axId val="395720095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -443,6 +479,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Angle de flexion (en</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> degré)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -465,7 +561,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -480,12 +576,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="655369760"/>
+        <c:crossAx val="395722527"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="655369760"/>
+        <c:axId val="395722527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -505,6 +601,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Résistance relative (R-R0)/R0</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -527,7 +678,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -542,7 +693,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654305168"/>
+        <c:crossAx val="395720095"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -585,7 +736,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="fr-FR"/>
     </a:p>
@@ -1158,23 +1309,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graphique 2">
+        <xdr:cNvPr id="2" name="Graphique 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8CACB6C-4475-4C82-ADB8-96C31E75F46A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38314697-8D75-C8BF-65FE-A3B27EDAF3A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1492,15 +1643,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898D8742-97F4-44FD-B2D3-C2BB3A655711}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1523,10 +1674,13 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>378495.56</v>
       </c>
@@ -1546,18 +1700,22 @@
         <v>382294.63</v>
       </c>
       <c r="G2">
-        <f>(A2+B2+C2+D2+E2+F2)/5</f>
-        <v>458767.24799999996</v>
+        <f>(A2+B2+C2+D2+E2+F2)/6</f>
+        <v>382306.04</v>
       </c>
       <c r="H2">
-        <f>I2*4.23</f>
+        <f>(G2-382306.04)/G2</f>
         <v>0</v>
       </c>
       <c r="I2">
+        <f>J2*4.23</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>340750</v>
       </c>
@@ -1577,18 +1735,22 @@
         <v>343902.44</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G27" si="0">(A3+B3+C3+D3+E3+F3)/5</f>
-        <v>411421.95199999993</v>
+        <f t="shared" ref="G3:G27" si="0">(A3+B3+C3+D3+E3+F3)/6</f>
+        <v>342851.62666666665</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H27" si="1">I3*4.23</f>
+        <f t="shared" ref="H3:H27" si="1">(G3-382306.04)/G3</f>
+        <v>-0.11507722368688776</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I27" si="2">J3*4.23</f>
         <v>4.2300000000000004</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>337648</v>
       </c>
@@ -1609,17 +1771,21 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>405177.59999999998</v>
+        <v>337648</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
+        <v>-0.13226211912998145</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
         <v>8.4600000000000009</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>328632.81</v>
       </c>
@@ -1640,17 +1806,21 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>399119.90600000002</v>
+        <v>332599.92166666669</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
+        <v>-0.14944717390267159</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
         <v>12.690000000000001</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>320030.56</v>
       </c>
@@ -1671,17 +1841,21 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>390318.38</v>
+        <v>325265.31666666671</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
+        <v>-0.17536675572387833</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
         <v>16.920000000000002</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>314511.28000000003</v>
       </c>
@@ -1702,17 +1876,21 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>381820.59200000006</v>
+        <v>318183.82666666672</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
+        <v>-0.20152568408358632</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
         <v>21.150000000000002</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>309155.53000000003</v>
       </c>
@@ -1733,17 +1911,21 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>374723.7</v>
+        <v>312269.75</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
+        <v>-0.22428137851969324</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
         <v>25.380000000000003</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>306536.75</v>
       </c>
@@ -1764,17 +1946,21 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>370994.46799999999</v>
+        <v>309162.0566666667</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
+        <v>-0.23658784044186859</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
         <v>29.610000000000003</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>303956.19</v>
       </c>
@@ -1795,17 +1981,21 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>366811.87599999999</v>
+        <v>305676.5633333333</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
+        <v>-0.25068809931333857</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
         <v>33.840000000000003</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>301413.03000000003</v>
       </c>
@@ -1826,17 +2016,21 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>363221.53200000001</v>
+        <v>302684.61</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
+        <v>-0.26305080393747138</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
         <v>38.070000000000007</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>298906.46999999997</v>
       </c>
@@ -1857,17 +2051,21 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>359189.076</v>
+        <v>299324.23</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
+        <v>-0.27723051354713252</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
         <v>42.300000000000004</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>294000</v>
       </c>
@@ -1888,17 +2086,21 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>355242.72599999997</v>
+        <v>296035.60499999998</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
+        <v>-0.29141911831855499</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
         <v>46.53</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>289230.78000000003</v>
       </c>
@@ -1919,17 +2121,21 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>351853.01800000004</v>
+        <v>293210.84833333333</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
+        <v>-0.30386048869985816</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
         <v>50.760000000000005</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>289230.78000000003</v>
       </c>
@@ -1950,17 +2156,21 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>349444.7460000001</v>
+        <v>291203.95500000007</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
+        <v>-0.31284631762642057</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
         <v>54.990000000000009</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>286895.84000000003</v>
       </c>
@@ -1981,17 +2191,21 @@
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>346142.96000000008</v>
+        <v>288452.46666666673</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
+        <v>-0.32536928672476789</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
         <v>59.220000000000006</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>284593.09000000003</v>
       </c>
@@ -2012,17 +2226,21 @@
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>343353.90800000005</v>
+        <v>286128.25666666671</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
+        <v>-0.33613521591255602</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
         <v>63.45</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>282321.94</v>
       </c>
@@ -2043,17 +2261,21 @@
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>341057.47800000006</v>
+        <v>284214.56500000006</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
+        <v>-0.34513176690997488</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
         <v>67.680000000000007</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>280081.65999999997</v>
       </c>
@@ -2074,17 +2296,21 @@
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>338338.272</v>
+        <v>281948.56</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
+        <v>-0.35594251660657528</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
         <v>71.910000000000011</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>277871.59000000003</v>
       </c>
@@ -2105,17 +2331,21 @@
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>336104.03399999993</v>
+        <v>280086.69499999995</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
+        <v>-0.36495608975642363</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
         <v>76.140000000000015</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>277871.59000000003</v>
       </c>
@@ -2136,17 +2366,21 @@
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>334329.93599999999</v>
+        <v>278608.27999999997</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
+        <v>-0.37219913205738187</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
         <v>80.37</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>275691.28000000003</v>
       </c>
@@ -2167,17 +2401,21 @@
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>332137.72200000007</v>
+        <v>276781.43500000006</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
+        <v>-0.38125608027142394</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
         <v>84.600000000000009</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>273540</v>
       </c>
@@ -2198,17 +2436,21 @@
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>328678.25599999999</v>
+        <v>273898.54666666669</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
+        <v>-0.39579433572265255</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
         <v>88.830000000000013</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>271417.21999999997</v>
       </c>
@@ -2229,17 +2471,21 @@
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>326549.77599999995</v>
+        <v>272124.8133333333</v>
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
+        <v>-0.40489224527901696</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
         <v>93.06</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>269322.38</v>
       </c>
@@ -2260,17 +2506,21 @@
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>324862.728</v>
+        <v>270718.94</v>
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
+        <v>-0.41218800575977421</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
         <v>97.29</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>269322.38</v>
       </c>
@@ -2291,17 +2541,21 @@
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>323186.85599999997</v>
+        <v>269322.37999999995</v>
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
+        <v>-0.41951084792879095</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
         <v>101.52000000000001</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>267254.90999999997</v>
       </c>
@@ -2322,13 +2576,17 @@
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>322773.36200000002</v>
+        <v>268977.8016666667</v>
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
+        <v>-0.42132933510169879</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
         <v>105.75000000000001</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>25</v>
       </c>
     </row>

--- a/ResultatsBancTest/Flex.xlsx
+++ b/ResultatsBancTest/Flex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louis-maxencehotton/Desktop/ProjetCapteurGraphite2022-LM-TL/ResultatsBancTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6864ACA8-7309-5742-A6EC-87212E11BDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D30D456-9DF6-774A-80FA-11E221BB842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{786922CB-4535-4135-98E9-A5AD90371A33}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{786922CB-4535-4135-98E9-A5AD90371A33}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -227,13 +227,14 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.7314523184601924E-2"/>
-                  <c:y val="-0.29862605715952173"/>
+                  <c:x val="-0.18859551288965593"/>
+                  <c:y val="-6.8028895470634981E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1645,7 +1646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898D8742-97F4-44FD-B2D3-C2BB3A655711}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>

--- a/ResultatsBancTest/Flex.xlsx
+++ b/ResultatsBancTest/Flex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louis-maxencehotton/Desktop/ProjetCapteurGraphite2022-LM-TL/ResultatsBancTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D30D456-9DF6-774A-80FA-11E221BB842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843985C7-3616-754F-80B4-47E320CCBA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{786922CB-4535-4135-98E9-A5AD90371A33}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{786922CB-4535-4135-98E9-A5AD90371A33}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -227,7 +227,6 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:intercept val="0"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -364,79 +363,79 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.11507722368688776</c:v>
+                  <c:v>-11.507722368688777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.13226211912998145</c:v>
+                  <c:v>-13.226211912998146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.14944717390267159</c:v>
+                  <c:v>-14.944717390267158</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.17536675572387833</c:v>
+                  <c:v>-17.536675572387832</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.20152568408358632</c:v>
+                  <c:v>-20.152568408358633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.22428137851969324</c:v>
+                  <c:v>-22.428137851969325</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.23658784044186859</c:v>
+                  <c:v>-23.658784044186863</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.25068809931333857</c:v>
+                  <c:v>-25.068809931333856</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.26305080393747138</c:v>
+                  <c:v>-26.30508039374714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.27723051354713252</c:v>
+                  <c:v>-27.723051354713249</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.29141911831855499</c:v>
+                  <c:v>-29.141911831855499</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.30386048869985816</c:v>
+                  <c:v>-30.38604886998581</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.31284631762642057</c:v>
+                  <c:v>-31.284631762642057</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.32536928672476789</c:v>
+                  <c:v>-32.53692867247679</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.33613521591255602</c:v>
+                  <c:v>-33.613521591255605</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.34513176690997488</c:v>
+                  <c:v>-34.51317669099749</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.35594251660657528</c:v>
+                  <c:v>-35.594251660657527</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.36495608975642363</c:v>
+                  <c:v>-36.495608975642362</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.37219913205738187</c:v>
+                  <c:v>-37.21991320573818</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.38125608027142394</c:v>
+                  <c:v>-38.125608027142391</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.39579433572265255</c:v>
+                  <c:v>-39.579433572265252</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.40489224527901696</c:v>
+                  <c:v>-40.48922452790169</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.41218800575977421</c:v>
+                  <c:v>-41.218800575977426</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.41951084792879095</c:v>
+                  <c:v>-41.951084792879101</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.42132933510169879</c:v>
+                  <c:v>-42.132933510169877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -623,7 +622,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Résistance relative (R-R0)/R0</a:t>
+                  <a:t> (R-R0)/R0 en %</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1647,7 +1646,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W38" sqref="W38"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1705,7 +1704,7 @@
         <v>382306.04</v>
       </c>
       <c r="H2">
-        <f>(G2-382306.04)/G2</f>
+        <f>100*(G2-382306.04)/G2</f>
         <v>0</v>
       </c>
       <c r="I2">
@@ -1740,8 +1739,8 @@
         <v>342851.62666666665</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H27" si="1">(G3-382306.04)/G3</f>
-        <v>-0.11507722368688776</v>
+        <f t="shared" ref="H3:H27" si="1">100*(G3-382306.04)/G3</f>
+        <v>-11.507722368688777</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I27" si="2">J3*4.23</f>
@@ -1776,7 +1775,7 @@
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>-0.13226211912998145</v>
+        <v>-13.226211912998146</v>
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
@@ -1811,7 +1810,7 @@
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>-0.14944717390267159</v>
+        <v>-14.944717390267158</v>
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
@@ -1846,7 +1845,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>-0.17536675572387833</v>
+        <v>-17.536675572387832</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
@@ -1881,7 +1880,7 @@
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>-0.20152568408358632</v>
+        <v>-20.152568408358633</v>
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
@@ -1916,7 +1915,7 @@
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>-0.22428137851969324</v>
+        <v>-22.428137851969325</v>
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
@@ -1951,7 +1950,7 @@
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>-0.23658784044186859</v>
+        <v>-23.658784044186863</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
@@ -1986,7 +1985,7 @@
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>-0.25068809931333857</v>
+        <v>-25.068809931333856</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
@@ -2021,7 +2020,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>-0.26305080393747138</v>
+        <v>-26.30508039374714</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
@@ -2056,7 +2055,7 @@
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>-0.27723051354713252</v>
+        <v>-27.723051354713249</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
@@ -2091,7 +2090,7 @@
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>-0.29141911831855499</v>
+        <v>-29.141911831855499</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
@@ -2126,7 +2125,7 @@
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>-0.30386048869985816</v>
+        <v>-30.38604886998581</v>
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
@@ -2161,7 +2160,7 @@
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>-0.31284631762642057</v>
+        <v>-31.284631762642057</v>
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
@@ -2196,7 +2195,7 @@
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>-0.32536928672476789</v>
+        <v>-32.53692867247679</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
@@ -2231,7 +2230,7 @@
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>-0.33613521591255602</v>
+        <v>-33.613521591255605</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
@@ -2266,7 +2265,7 @@
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>-0.34513176690997488</v>
+        <v>-34.51317669099749</v>
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
@@ -2301,7 +2300,7 @@
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>-0.35594251660657528</v>
+        <v>-35.594251660657527</v>
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
@@ -2336,7 +2335,7 @@
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>-0.36495608975642363</v>
+        <v>-36.495608975642362</v>
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
@@ -2371,7 +2370,7 @@
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
-        <v>-0.37219913205738187</v>
+        <v>-37.21991320573818</v>
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
@@ -2406,7 +2405,7 @@
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>-0.38125608027142394</v>
+        <v>-38.125608027142391</v>
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
@@ -2441,7 +2440,7 @@
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>-0.39579433572265255</v>
+        <v>-39.579433572265252</v>
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
@@ -2476,7 +2475,7 @@
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
-        <v>-0.40489224527901696</v>
+        <v>-40.48922452790169</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
@@ -2511,7 +2510,7 @@
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
-        <v>-0.41218800575977421</v>
+        <v>-41.218800575977426</v>
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
@@ -2546,7 +2545,7 @@
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>-0.41951084792879095</v>
+        <v>-41.951084792879101</v>
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
@@ -2581,7 +2580,7 @@
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
-        <v>-0.42132933510169879</v>
+        <v>-42.132933510169877</v>
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
